--- a/th_UNet rewrites/savedstatistics/30epoch30firstImglr1e-3AdamCrossentr.xlsx
+++ b/th_UNet rewrites/savedstatistics/30epoch30firstImglr1e-3AdamCrossentr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theophanemayaud/Dev/EPFL MA1/Machine Learning/cs-433-project-2-ml_fools/th_UNet rewrites/savedstatistics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theophanemayaud/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1367B54F-53B0-D741-8247-67B9796642F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2814E1C0-0AC0-914A-9AD7-E66EF20A2DB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11960" yWindow="5900" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="6200" yWindow="1700" windowWidth="22220" windowHeight="15740"/>
   </bookViews>
   <sheets>
     <sheet name="30epoch30firstImglr1e-3AdamCros" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <t>TP</t>
   </si>
   <si>
-    <t>FN</t>
+    <t>TN</t>
   </si>
 </sst>
 </file>
@@ -872,7 +872,7 @@
   <dimension ref="A1:C198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="A1:C198"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/th_UNet rewrites/savedstatistics/30epoch30firstImglr1e-3AdamCrossentr.xlsx
+++ b/th_UNet rewrites/savedstatistics/30epoch30firstImglr1e-3AdamCrossentr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theophanemayaud/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2814E1C0-0AC0-914A-9AD7-E66EF20A2DB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C4E137B-21E4-9F49-AD48-6C8F90D3D3F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6200" yWindow="1700" windowWidth="22220" windowHeight="15740"/>
+    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="30epoch30firstImglr1e-3AdamCros" sheetId="1" r:id="rId1"/>
@@ -872,7 +872,7 @@
   <dimension ref="A1:C198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -896,7 +896,7 @@
         <v>0.68262224167675101</v>
       </c>
       <c r="C2">
-        <v>0.31737775832324799</v>
+        <v>0.99657176975595196</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -907,7 +907,7 @@
         <v>0.74698037242073401</v>
       </c>
       <c r="C3">
-        <v>0.25301962757926499</v>
+        <v>0.99643218073802597</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -918,7 +918,7 @@
         <v>0.73542490321626097</v>
       </c>
       <c r="C4">
-        <v>0.26457509678373797</v>
+        <v>0.99697897325774298</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -929,7 +929,7 @@
         <v>0.73282442748091603</v>
       </c>
       <c r="C5">
-        <v>0.26717557251908303</v>
+        <v>0.99629281097866396</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -940,7 +940,7 @@
         <v>0.78646777507294396</v>
       </c>
       <c r="C6">
-        <v>0.21353222492705501</v>
+        <v>0.99549343321400996</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -951,7 +951,7 @@
         <v>0.79634038312479205</v>
       </c>
       <c r="C7">
-        <v>0.20365961687520701</v>
+        <v>0.993996637465559</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -962,7 +962,7 @@
         <v>0.73596780850185695</v>
       </c>
       <c r="C8">
-        <v>0.264032191498142</v>
+        <v>0.99853731280746405</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -973,7 +973,7 @@
         <v>0.80264436424208696</v>
       </c>
       <c r="C9">
-        <v>0.19735563575791201</v>
+        <v>0.99818263136127094</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -984,7 +984,7 @@
         <v>0.57404904421702996</v>
       </c>
       <c r="C10">
-        <v>0.42595095578296899</v>
+        <v>0.99918236497999402</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -995,7 +995,7 @@
         <v>0.72736938031591702</v>
       </c>
       <c r="C11">
-        <v>0.27263061968408198</v>
+        <v>0.99839437423059996</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1006,7 +1006,7 @@
         <v>0.760788243152972</v>
       </c>
       <c r="C12">
-        <v>0.239211756847027</v>
+        <v>0.997754654884485</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1017,7 +1017,7 @@
         <v>0.81307008428587901</v>
       </c>
       <c r="C13">
-        <v>0.18692991571411999</v>
+        <v>0.99679885445142602</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1028,7 +1028,7 @@
         <v>0.72000358969756795</v>
       </c>
       <c r="C14">
-        <v>0.279996410302432</v>
+        <v>0.99840334335436898</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1039,7 +1039,7 @@
         <v>0.70251620838458095</v>
       </c>
       <c r="C15">
-        <v>0.29748379161541799</v>
+        <v>0.99737503282502904</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1050,7 +1050,7 @@
         <v>0.74980083415342802</v>
       </c>
       <c r="C16">
-        <v>0.25019916584657198</v>
+        <v>0.99763576788325703</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1061,7 +1061,7 @@
         <v>3.06995470558631E-2</v>
       </c>
       <c r="C17">
-        <v>0.96930045294413603</v>
+        <v>0.989375414989769</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1072,7 +1072,7 @@
         <v>0.76255810336783503</v>
       </c>
       <c r="C18">
-        <v>0.237441896632164</v>
+        <v>0.99443148155529504</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1083,7 +1083,7 @@
         <v>0.66361155810536598</v>
       </c>
       <c r="C19">
-        <v>0.33638844189463302</v>
+        <v>0.99601668543280997</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1094,7 +1094,7 @@
         <v>0.796728069045472</v>
       </c>
       <c r="C20">
-        <v>0.203271930954527</v>
+        <v>0.99651380453636895</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1105,7 +1105,7 @@
         <v>0.72895373561111498</v>
       </c>
       <c r="C21">
-        <v>0.27104626438888402</v>
+        <v>0.99419342875385397</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1116,7 +1116,7 @@
         <v>0.76633266533066102</v>
       </c>
       <c r="C22">
-        <v>0.23366733466933801</v>
+        <v>0.99646932601417404</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1127,7 +1127,7 @@
         <v>0.63116823502409902</v>
       </c>
       <c r="C23">
-        <v>0.36883176497589998</v>
+        <v>0.99850197181400302</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1138,7 +1138,7 @@
         <v>0.74250427217647896</v>
       </c>
       <c r="C24">
-        <v>0.25749572782351998</v>
+        <v>0.99864332553569202</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1149,7 +1149,7 @@
         <v>0.69324417009602102</v>
       </c>
       <c r="C25">
-        <v>0.30675582990397798</v>
+        <v>0.99887839835284697</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1160,7 +1160,7 @@
         <v>0.75243013365735101</v>
       </c>
       <c r="C26">
-        <v>0.24756986634264799</v>
+        <v>0.99711844646679004</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1171,7 +1171,7 @@
         <v>0.70773920739502405</v>
       </c>
       <c r="C27">
-        <v>0.29226079260497501</v>
+        <v>0.99676923301458997</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1182,7 +1182,7 @@
         <v>0.79062551037073303</v>
       </c>
       <c r="C28">
-        <v>0.209374489629266</v>
+        <v>0.99727542240623701</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1193,7 +1193,7 @@
         <v>0.79129330058439895</v>
       </c>
       <c r="C29">
-        <v>0.20870669941559999</v>
+        <v>0.99751139081836804</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1204,7 +1204,7 @@
         <v>0.78811862749662398</v>
       </c>
       <c r="C30">
-        <v>0.21188137250337499</v>
+        <v>0.99778470119040896</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1215,7 +1215,7 @@
         <v>0.79462301097272603</v>
       </c>
       <c r="C31">
-        <v>0.205376989027273</v>
+        <v>0.99804630940425298</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1226,7 +1226,7 @@
         <v>0.793779238841825</v>
       </c>
       <c r="C32">
-        <v>0.206220761158174</v>
+        <v>0.99755165050072303</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1237,7 +1237,7 @@
         <v>0.77321830890989895</v>
       </c>
       <c r="C33">
-        <v>0.22678169109009999</v>
+        <v>0.99755329523274905</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1248,7 +1248,7 @@
         <v>0.74181409716371804</v>
       </c>
       <c r="C34">
-        <v>0.25818590283628101</v>
+        <v>0.99637575070821505</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1259,7 +1259,7 @@
         <v>0.76102038757691504</v>
       </c>
       <c r="C35">
-        <v>0.23897961242308399</v>
+        <v>0.99624763873543098</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1270,7 +1270,7 @@
         <v>0.73453397263477904</v>
       </c>
       <c r="C36">
-        <v>0.26546602736522001</v>
+        <v>0.99833703955535003</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1281,7 +1281,7 @@
         <v>0.76558611153787004</v>
       </c>
       <c r="C37">
-        <v>0.23441388846212899</v>
+        <v>0.99579114832174498</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1292,7 +1292,7 @@
         <v>0.68898604539737596</v>
       </c>
       <c r="C38">
-        <v>0.31101395460262299</v>
+        <v>0.996872611204493</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1303,7 +1303,7 @@
         <v>0.744765616542167</v>
       </c>
       <c r="C39">
-        <v>0.255234383457832</v>
+        <v>0.99685560851035404</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1314,7 +1314,7 @@
         <v>0.61234911792014801</v>
       </c>
       <c r="C40">
-        <v>0.38765088207985099</v>
+        <v>0.99730339791176204</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1325,7 +1325,7 @@
         <v>0.75785215736040601</v>
       </c>
       <c r="C41">
-        <v>0.24214784263959299</v>
+        <v>0.99803336342457405</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1336,7 +1336,7 @@
         <v>0.70708661417322805</v>
       </c>
       <c r="C42">
-        <v>0.29291338582677101</v>
+        <v>0.998581595105412</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1347,7 +1347,7 @@
         <v>0.63613078197980999</v>
       </c>
       <c r="C43">
-        <v>0.36386921802018901</v>
+        <v>0.99913286066697504</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1358,7 +1358,7 @@
         <v>0.65837165269137099</v>
       </c>
       <c r="C44">
-        <v>0.34162834730862801</v>
+        <v>0.99889557608401702</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1369,7 +1369,7 @@
         <v>0.11159499183451201</v>
       </c>
       <c r="C45">
-        <v>0.88840500816548695</v>
+        <v>0.99992706207017801</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1380,7 +1380,7 @@
         <v>0.71597924198824303</v>
       </c>
       <c r="C46">
-        <v>0.28402075801175602</v>
+        <v>0.99713686565899295</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1391,7 +1391,7 @@
         <v>0.74471652103231001</v>
       </c>
       <c r="C47">
-        <v>0.25528347896768899</v>
+        <v>0.99690173436126694</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1402,7 +1402,7 @@
         <v>0.73784609222450304</v>
       </c>
       <c r="C48">
-        <v>0.26215390777549602</v>
+        <v>0.99657316637288695</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1413,7 +1413,7 @@
         <v>0.69579092274319998</v>
       </c>
       <c r="C49">
-        <v>0.30420907725679902</v>
+        <v>0.997278823758324</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1424,7 +1424,7 @@
         <v>0.80563491714649904</v>
       </c>
       <c r="C50">
-        <v>0.19436508285349999</v>
+        <v>0.99787903204088202</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1435,7 +1435,7 @@
         <v>0.66290668026516997</v>
       </c>
       <c r="C51">
-        <v>0.33709331973482898</v>
+        <v>0.99892244689376997</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1446,7 +1446,7 @@
         <v>0.66818152223451999</v>
       </c>
       <c r="C52">
-        <v>0.33181847776547901</v>
+        <v>0.99586274149564502</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1457,7 +1457,7 @@
         <v>0.69611966980387996</v>
       </c>
       <c r="C53">
-        <v>0.30388033019611899</v>
+        <v>0.99869756591284098</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1468,7 +1468,7 @@
         <v>0.244525801144657</v>
       </c>
       <c r="C54">
-        <v>0.75547419885534195</v>
+        <v>0.99886737789755398</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1479,7 +1479,7 @@
         <v>0.73572539021205097</v>
       </c>
       <c r="C55">
-        <v>0.26427460978794798</v>
+        <v>0.99691090492788503</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1490,7 +1490,7 @@
         <v>0.20152873732176901</v>
       </c>
       <c r="C56">
-        <v>0.79847126267822999</v>
+        <v>0.99978329943426802</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1501,7 +1501,7 @@
         <v>0.71153913255870704</v>
       </c>
       <c r="C57">
-        <v>0.28846086744129201</v>
+        <v>0.99493334259363997</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1512,7 +1512,7 @@
         <v>2.80718492560042E-3</v>
       </c>
       <c r="C58">
-        <v>0.99719281507439905</v>
+        <v>0.99999799674136503</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1523,7 +1523,7 @@
         <v>9.46930280957336E-2</v>
       </c>
       <c r="C59">
-        <v>0.90530697190426601</v>
+        <v>0.99998541951694797</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1534,7 +1534,7 @@
         <v>0.69532972539587001</v>
       </c>
       <c r="C60">
-        <v>0.30467027460412899</v>
+        <v>0.99837722971568998</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1545,7 +1545,7 @@
         <v>7.6993583868010997E-4</v>
       </c>
       <c r="C61">
-        <v>0.99923006416131899</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1556,7 +1556,7 @@
         <v>0.81863648328507499</v>
       </c>
       <c r="C62">
-        <v>0.18136351671492401</v>
+        <v>0.99895580943718199</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1567,7 +1567,7 @@
         <v>0.78847259366642497</v>
       </c>
       <c r="C63">
-        <v>0.211527406333574</v>
+        <v>0.99788230756748697</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1578,7 +1578,7 @@
         <v>0.370305604130235</v>
       </c>
       <c r="C64">
-        <v>0.62969439586976395</v>
+        <v>0.99924661383904001</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1589,7 +1589,7 @@
         <v>0.60310174371231395</v>
       </c>
       <c r="C65">
-        <v>0.39689825628768499</v>
+        <v>0.99906827578679802</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1600,7 +1600,7 @@
         <v>0.445942944181766</v>
       </c>
       <c r="C66">
-        <v>0.55405705581823295</v>
+        <v>0.99970653783056296</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1611,7 +1611,7 @@
         <v>0.72360459526217202</v>
       </c>
       <c r="C67">
-        <v>0.27639540473782798</v>
+        <v>0.99768247208885397</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -1622,7 +1622,7 @@
         <v>0.76218253612133102</v>
       </c>
       <c r="C68">
-        <v>0.23781746387866801</v>
+        <v>0.99823919297416197</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -1633,7 +1633,7 @@
         <v>0.69508140193591295</v>
       </c>
       <c r="C69">
-        <v>0.304918598064087</v>
+        <v>0.996202635437204</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -1644,7 +1644,7 @@
         <v>0.70992146822771296</v>
       </c>
       <c r="C70">
-        <v>0.29007853177228599</v>
+        <v>0.99695391327893601</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -1655,7 +1655,7 @@
         <v>0.75244797125318097</v>
       </c>
       <c r="C71">
-        <v>0.247552028746818</v>
+        <v>0.99700293632318604</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -1666,7 +1666,7 @@
         <v>0.27196909841102601</v>
       </c>
       <c r="C72">
-        <v>0.72803090158897299</v>
+        <v>0.99861871791557499</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -1677,7 +1677,7 @@
         <v>0.180230914231856</v>
       </c>
       <c r="C73">
-        <v>0.819769085768143</v>
+        <v>0.99939969892592195</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -1688,7 +1688,7 @@
         <v>0.71891927929729804</v>
       </c>
       <c r="C74">
-        <v>0.28108072070270101</v>
+        <v>0.99394155324893296</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -1699,7 +1699,7 @@
         <v>0.79430467238042501</v>
       </c>
       <c r="C75">
-        <v>0.20569532761957399</v>
+        <v>0.99867168181751997</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -1710,7 +1710,7 @@
         <v>0.726684350132626</v>
       </c>
       <c r="C76">
-        <v>0.273315649867374</v>
+        <v>0.99897749816099202</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -1721,7 +1721,7 @@
         <v>0.74404634198669795</v>
       </c>
       <c r="C77">
-        <v>0.255953658013301</v>
+        <v>0.99855931703394896</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -1732,7 +1732,7 @@
         <v>0.68288518992744296</v>
       </c>
       <c r="C78">
-        <v>0.31711481007255599</v>
+        <v>0.99956188773811405</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -1743,7 +1743,7 @@
         <v>0.66379513806938795</v>
       </c>
       <c r="C79">
-        <v>0.336204861930611</v>
+        <v>0.99816349103658397</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -1754,7 +1754,7 @@
         <v>0.64101720023043296</v>
       </c>
       <c r="C80">
-        <v>0.35898279976956599</v>
+        <v>0.99972497875574595</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -1765,7 +1765,7 @@
         <v>0.76713083156321205</v>
       </c>
       <c r="C81">
-        <v>0.23286916843678701</v>
+        <v>0.99769954300953101</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -1776,7 +1776,7 @@
         <v>0.64970724813244496</v>
       </c>
       <c r="C82">
-        <v>0.35029275186755499</v>
+        <v>0.99900206022634197</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -1787,7 +1787,7 @@
         <v>0.71389037238432695</v>
       </c>
       <c r="C83">
-        <v>0.28610962761567199</v>
+        <v>0.99686214949923302</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -1798,7 +1798,7 @@
         <v>0.82758362081895898</v>
       </c>
       <c r="C84">
-        <v>0.17241637918104</v>
+        <v>0.99722520158748595</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -1809,7 +1809,7 @@
         <v>0.22508125677139701</v>
       </c>
       <c r="C85">
-        <v>0.77491874322860199</v>
+        <v>0.99978713223886995</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -1820,7 +1820,7 @@
         <v>0.29451943405431702</v>
       </c>
       <c r="C86">
-        <v>0.70548056594568198</v>
+        <v>0.99954051095182095</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -1831,7 +1831,7 @@
         <v>0.68791650708540697</v>
       </c>
       <c r="C87">
-        <v>0.31208349291459198</v>
+        <v>0.995874488086119</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -1842,7 +1842,7 @@
         <v>0.68495087964097801</v>
       </c>
       <c r="C88">
-        <v>0.315049120359021</v>
+        <v>0.99368347870357898</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -1853,7 +1853,7 @@
         <v>0.74635395405796501</v>
       </c>
       <c r="C89">
-        <v>0.25364604594203399</v>
+        <v>0.99694629373860899</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -1864,7 +1864,7 @@
         <v>0.68731544136074796</v>
       </c>
       <c r="C90">
-        <v>0.31268455863925099</v>
+        <v>0.996658994099063</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -1875,7 +1875,7 @@
         <v>0.70735006062867201</v>
       </c>
       <c r="C91">
-        <v>0.29264993937132699</v>
+        <v>0.99573074641807102</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -1886,7 +1886,7 @@
         <v>0.73599999999999999</v>
       </c>
       <c r="C92">
-        <v>0.26400000000000001</v>
+        <v>0.99777541359309996</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -1897,7 +1897,7 @@
         <v>0.67956059366600396</v>
       </c>
       <c r="C93">
-        <v>0.32043940633399498</v>
+        <v>0.999315504608008</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -1908,7 +1908,7 @@
         <v>0.59707747449682902</v>
       </c>
       <c r="C94">
-        <v>0.40292252550316998</v>
+        <v>0.99931624380018003</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -1919,7 +1919,7 @@
         <v>0.61121561250881695</v>
       </c>
       <c r="C95">
-        <v>0.38878438749118199</v>
+        <v>0.99874115365609695</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -1930,7 +1930,7 @@
         <v>0.82482223658694198</v>
       </c>
       <c r="C96">
-        <v>0.17517776341305699</v>
+        <v>0.99781036253078603</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -1941,7 +1941,7 @@
         <v>1.4125467386788501E-3</v>
       </c>
       <c r="C97">
-        <v>0.99858745326132103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -1952,7 +1952,7 @@
         <v>0.78930096650932702</v>
       </c>
       <c r="C98">
-        <v>0.21069903349067201</v>
+        <v>0.99880738786279599</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -1963,7 +1963,7 @@
         <v>0.12741747068749101</v>
       </c>
       <c r="C99">
-        <v>0.87258252931250802</v>
+        <v>0.99987319360969695</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -1974,7 +1974,7 @@
         <v>0.45206655726443501</v>
       </c>
       <c r="C100">
-        <v>0.54793344273556399</v>
+        <v>0.99884876616575902</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -1985,7 +1985,7 @@
         <v>6.5217391304347797E-2</v>
       </c>
       <c r="C101">
-        <v>0.934782608695652</v>
+        <v>0.99820803122082702</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -1996,7 +1996,7 @@
         <v>0.70075024201355196</v>
       </c>
       <c r="C102">
-        <v>0.29924975798644698</v>
+        <v>0.99831507770030703</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -2007,7 +2007,7 @@
         <v>0.71070107411864303</v>
       </c>
       <c r="C103">
-        <v>0.28929892588135597</v>
+        <v>0.99712369087625896</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -2018,7 +2018,7 @@
         <v>0.39334298118668598</v>
       </c>
       <c r="C104">
-        <v>0.60665701881331402</v>
+        <v>0.99923963636631197</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -2029,7 +2029,7 @@
         <v>0.60397106356779995</v>
       </c>
       <c r="C105">
-        <v>0.396028936432199</v>
+        <v>0.997845641723621</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -2040,7 +2040,7 @@
         <v>0.35324818019502802</v>
       </c>
       <c r="C106">
-        <v>0.64675181980497098</v>
+        <v>0.99914715737864102</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -2051,7 +2051,7 @@
         <v>0.52781211372064196</v>
       </c>
       <c r="C107">
-        <v>0.47218788627935698</v>
+        <v>0.99935988506380702</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -2062,7 +2062,7 @@
         <v>0.61454940282301795</v>
       </c>
       <c r="C108">
-        <v>0.38545059717698099</v>
+        <v>0.998690807908301</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -2073,7 +2073,7 @@
         <v>0.71371371371371295</v>
       </c>
       <c r="C109">
-        <v>0.286286286286286</v>
+        <v>0.99867534043892803</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -2084,7 +2084,7 @@
         <v>0.64809384164222805</v>
       </c>
       <c r="C110">
-        <v>0.351906158357771</v>
+        <v>0.99972779407489598</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -2095,7 +2095,7 @@
         <v>0.47897196261682201</v>
       </c>
       <c r="C111">
-        <v>0.52102803738317705</v>
+        <v>0.99966732903452704</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -2106,7 +2106,7 @@
         <v>0.79244060475161904</v>
       </c>
       <c r="C112">
-        <v>0.20755939524837999</v>
+        <v>0.997270122807978</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -2117,7 +2117,7 @@
         <v>0.74228329809725102</v>
       </c>
       <c r="C113">
-        <v>0.25771670190274798</v>
+        <v>0.99845494314605099</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -2128,7 +2128,7 @@
         <v>0.77495462794918302</v>
       </c>
       <c r="C114">
-        <v>0.22504537205081601</v>
+        <v>0.99842184356936503</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -2139,7 +2139,7 @@
         <v>0.73353171919383198</v>
       </c>
       <c r="C115">
-        <v>0.26646828080616802</v>
+        <v>0.99773535661106505</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -2150,7 +2150,7 @@
         <v>0.77704267284154804</v>
       </c>
       <c r="C116">
-        <v>0.22295732715845101</v>
+        <v>0.99855018566657705</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -2161,7 +2161,7 @@
         <v>0.652079334612923</v>
       </c>
       <c r="C117">
-        <v>0.347920665387076</v>
+        <v>0.99805789128010602</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -2172,7 +2172,7 @@
         <v>0.23760523854069199</v>
       </c>
       <c r="C118">
-        <v>0.76239476145930696</v>
+        <v>0.999411627742959</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -2183,7 +2183,7 @@
         <v>0.51973684210526305</v>
       </c>
       <c r="C119">
-        <v>0.480263157894736</v>
+        <v>0.99946453319894102</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -2194,7 +2194,7 @@
         <v>0.55557112824106503</v>
       </c>
       <c r="C120">
-        <v>0.44442887175893397</v>
+        <v>0.99754453084455197</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -2205,7 +2205,7 @@
         <v>0.61694832231202501</v>
       </c>
       <c r="C121">
-        <v>0.38305167768797399</v>
+        <v>0.99895023519078896</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -2216,7 +2216,7 @@
         <v>0.24774774774774699</v>
       </c>
       <c r="C122">
-        <v>0.75225225225225201</v>
+        <v>0.99886244651559597</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -2227,7 +2227,7 @@
         <v>0.69155446756425898</v>
       </c>
       <c r="C123">
-        <v>0.30844553243574002</v>
+        <v>0.99800558967241404</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -2238,7 +2238,7 @@
         <v>0.32432432432432401</v>
       </c>
       <c r="C124">
-        <v>0.67567567567567499</v>
+        <v>0.99958394198268297</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -2249,7 +2249,7 @@
         <v>0.57457457457457395</v>
       </c>
       <c r="C125">
-        <v>0.425425425425425</v>
+        <v>0.99831558087688799</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -2260,7 +2260,7 @@
         <v>0.67883644998515802</v>
       </c>
       <c r="C126">
-        <v>0.32116355001484098</v>
+        <v>0.99935530669248396</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -2271,7 +2271,7 @@
         <v>0.78751172241325396</v>
       </c>
       <c r="C127">
-        <v>0.21248827758674499</v>
+        <v>0.998474413336089</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -2282,7 +2282,7 @@
         <v>0.78438589693917005</v>
       </c>
       <c r="C128">
-        <v>0.21561410306082901</v>
+        <v>0.99903003516724997</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -2293,7 +2293,7 @@
         <v>0.76989619377162599</v>
       </c>
       <c r="C129">
-        <v>0.23010380622837301</v>
+        <v>0.99948331657321898</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -2304,7 +2304,7 @@
         <v>0.76901874310915097</v>
       </c>
       <c r="C130">
-        <v>0.230981256890848</v>
+        <v>0.99800916082912505</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -2315,7 +2315,7 @@
         <v>0.76695233799428597</v>
       </c>
       <c r="C131">
-        <v>0.233047662005713</v>
+        <v>0.99856992446183501</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -2326,7 +2326,7 @@
         <v>0.509135200974421</v>
       </c>
       <c r="C132">
-        <v>0.490864799025578</v>
+        <v>0.99879818882882798</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -2337,7 +2337,7 @@
         <v>0.70529476297707705</v>
       </c>
       <c r="C133">
-        <v>0.29470523702292201</v>
+        <v>0.997205067588677</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -2348,7 +2348,7 @@
         <v>0.70304334460497997</v>
       </c>
       <c r="C134">
-        <v>0.29695665539501997</v>
+        <v>0.99920908988891599</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -2359,7 +2359,7 @@
         <v>0.65868421052631498</v>
       </c>
       <c r="C135">
-        <v>0.34131578947368402</v>
+        <v>0.99874437884585099</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -2370,7 +2370,7 @@
         <v>0.51610824742268002</v>
       </c>
       <c r="C136">
-        <v>0.48389175257731898</v>
+        <v>0.99866365574909499</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -2381,7 +2381,7 @@
         <v>0.59946426053855895</v>
       </c>
       <c r="C137">
-        <v>0.40053573946144</v>
+        <v>0.99816373204632602</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -2392,7 +2392,7 @@
         <v>0.27490039840637398</v>
       </c>
       <c r="C138">
-        <v>0.72509960159362497</v>
+        <v>0.99900997616046805</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -2403,7 +2403,7 @@
         <v>0.539800995024875</v>
       </c>
       <c r="C139">
-        <v>0.460199004975124</v>
+        <v>0.99853742281865998</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -2414,7 +2414,7 @@
         <v>0.58533791523482204</v>
       </c>
       <c r="C140">
-        <v>0.41466208476517702</v>
+        <v>0.99835929738353202</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -2425,7 +2425,7 @@
         <v>0.36418269230769201</v>
       </c>
       <c r="C141">
-        <v>0.63581730769230704</v>
+        <v>0.99924955748982602</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -2436,7 +2436,7 @@
         <v>0.604685212298682</v>
       </c>
       <c r="C142">
-        <v>0.39531478770131701</v>
+        <v>0.99804837392000401</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -2447,7 +2447,7 @@
         <v>0.26060606060606001</v>
       </c>
       <c r="C143">
-        <v>0.73939393939393905</v>
+        <v>0.99957282995072205</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -2458,7 +2458,7 @@
         <v>0.754601226993865</v>
       </c>
       <c r="C144">
-        <v>0.245398773006134</v>
+        <v>0.99782538940027099</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -2469,7 +2469,7 @@
         <v>0.63809523809523805</v>
       </c>
       <c r="C145">
-        <v>0.36190476190476101</v>
+        <v>0.99747215688497104</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -2480,7 +2480,7 @@
         <v>0.71839969076149901</v>
       </c>
       <c r="C146">
-        <v>0.28160030923849999</v>
+        <v>0.99750140708520196</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -2491,7 +2491,7 @@
         <v>0.71204713551460397</v>
       </c>
       <c r="C147">
-        <v>0.28795286448539498</v>
+        <v>0.99724755489313099</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -2502,7 +2502,7 @@
         <v>0.28441614195764098</v>
       </c>
       <c r="C148">
-        <v>0.71558385804235802</v>
+        <v>0.99961373861252001</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -2513,7 +2513,7 @@
         <v>0.78617972420063598</v>
       </c>
       <c r="C149">
-        <v>0.213820275799363</v>
+        <v>0.99905189605565603</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -2524,7 +2524,7 @@
         <v>0.64360711490188605</v>
       </c>
       <c r="C150">
-        <v>0.35639288509811301</v>
+        <v>0.99612803482351397</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -2535,7 +2535,7 @@
         <v>0.12139999999999999</v>
       </c>
       <c r="C151">
-        <v>0.87860000000000005</v>
+        <v>0.99972848703150297</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -2546,7 +2546,7 @@
         <v>0.59554423933800105</v>
       </c>
       <c r="C152">
-        <v>0.40445576066199801</v>
+        <v>0.99717322488757598</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -2557,7 +2557,7 @@
         <v>0.51382759635186803</v>
       </c>
       <c r="C153">
-        <v>0.48617240364813102</v>
+        <v>0.99880191230320603</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -2568,7 +2568,7 @@
         <v>8.3703155818540403E-2</v>
       </c>
       <c r="C154">
-        <v>0.91629684418145896</v>
+        <v>0.99987940687763399</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -2579,7 +2579,7 @@
         <v>0.73058389551693104</v>
       </c>
       <c r="C155">
-        <v>0.26941610448306802</v>
+        <v>0.99688948075720996</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -2590,7 +2590,7 @@
         <v>0.16371077762619299</v>
       </c>
       <c r="C156">
-        <v>0.83628922237380598</v>
+        <v>0.99987505808395205</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -2601,7 +2601,7 @@
         <v>8.9504113853680206E-2</v>
       </c>
       <c r="C157">
-        <v>0.91049588614631904</v>
+        <v>0.99995624632347502</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -2612,7 +2612,7 @@
         <v>0.40875912408759102</v>
       </c>
       <c r="C158">
-        <v>0.59124087591240804</v>
+        <v>0.99950363592795599</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -2623,7 +2623,7 @@
         <v>6.6037735849056603E-2</v>
       </c>
       <c r="C159">
-        <v>0.93396226415094297</v>
+        <v>0.99953798357113199</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -2634,7 +2634,7 @@
         <v>0.32804232804232802</v>
       </c>
       <c r="C160">
-        <v>0.67195767195767198</v>
+        <v>0.99912989533292995</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -2645,7 +2645,7 @@
         <v>0.72363330529856995</v>
       </c>
       <c r="C161">
-        <v>0.27636669470142899</v>
+        <v>0.99833902723923196</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -2656,7 +2656,7 @@
         <v>0.681898846495119</v>
       </c>
       <c r="C162">
-        <v>0.31810115350488</v>
+        <v>0.99881409176899405</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -2667,7 +2667,7 @@
         <v>0.70495527474087705</v>
       </c>
       <c r="C163">
-        <v>0.29504472525912201</v>
+        <v>0.99817975793884395</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -2678,7 +2678,7 @@
         <v>0.77801824084093296</v>
       </c>
       <c r="C164">
-        <v>0.22198175915906601</v>
+        <v>0.99879441393931301</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -2689,7 +2689,7 @@
         <v>0.80753407045512904</v>
       </c>
       <c r="C165">
-        <v>0.19246592954486999</v>
+        <v>0.99833458539827902</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -2700,7 +2700,7 @@
         <v>0.72710733778047298</v>
       </c>
       <c r="C166">
-        <v>0.27289266221952602</v>
+        <v>0.99918460871539705</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -2711,7 +2711,7 @@
         <v>0.15069627032817201</v>
       </c>
       <c r="C167">
-        <v>0.84930372967182699</v>
+        <v>0.99963158658709905</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -2722,7 +2722,7 @@
         <v>6.71578048259662E-2</v>
       </c>
       <c r="C168">
-        <v>0.932842195174033</v>
+        <v>0.99964974196179901</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -2733,7 +2733,7 @@
         <v>0.22498286497601</v>
       </c>
       <c r="C169">
-        <v>0.77501713502398895</v>
+        <v>0.99942053140202003</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -2744,7 +2744,7 @@
         <v>0.53170553935859999</v>
       </c>
       <c r="C170">
-        <v>0.46829446064139901</v>
+        <v>0.99884291670890102</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -2755,7 +2755,7 @@
         <v>6.8230629439947094E-2</v>
       </c>
       <c r="C171">
-        <v>0.93176937056005205</v>
+        <v>0.99973399232841997</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -2766,7 +2766,7 @@
         <v>0.64761035702064496</v>
       </c>
       <c r="C172">
-        <v>0.35238964297935399</v>
+        <v>0.99674314694015997</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -2777,7 +2777,7 @@
         <v>0.75305810397553496</v>
       </c>
       <c r="C173">
-        <v>0.24694189602446401</v>
+        <v>0.99910806851079603</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -2788,7 +2788,7 @@
         <v>0.61079219288174502</v>
       </c>
       <c r="C174">
-        <v>0.38920780711825398</v>
+        <v>0.99880302571259705</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -2799,7 +2799,7 @@
         <v>0.37937743190661399</v>
       </c>
       <c r="C175">
-        <v>0.62062256809338501</v>
+        <v>0.99946483241647499</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -2810,7 +2810,7 @@
         <v>0.16014234875444799</v>
       </c>
       <c r="C176">
-        <v>0.83985765124555101</v>
+        <v>0.999361174837052</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -2821,7 +2821,7 @@
         <v>0.54252199413489699</v>
       </c>
       <c r="C177">
-        <v>0.45747800586510201</v>
+        <v>0.99889374300140299</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -2832,7 +2832,7 @@
         <v>9.0811965811965795E-2</v>
       </c>
       <c r="C178">
-        <v>0.90918803418803396</v>
+        <v>0.99993674340013805</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -2843,7 +2843,7 @@
         <v>8.2417952692229901E-2</v>
       </c>
       <c r="C179">
-        <v>0.91758204730777004</v>
+        <v>0.99979625753298595</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -2854,7 +2854,7 @@
         <v>0.42642177472892201</v>
       </c>
       <c r="C180">
-        <v>0.57357822527107705</v>
+        <v>0.99980892261278098</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -2865,7 +2865,7 @@
         <v>0.23537175538935301</v>
       </c>
       <c r="C181">
-        <v>0.76462824461064605</v>
+        <v>0.99974176057081698</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -2876,7 +2876,7 @@
         <v>0.68744098205854498</v>
       </c>
       <c r="C182">
-        <v>0.31255901794145402</v>
+        <v>0.99904820841948405</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -2887,7 +2887,7 @@
         <v>0.403669724770642</v>
       </c>
       <c r="C183">
-        <v>0.596330275229357</v>
+        <v>0.99976363619034903</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -2898,7 +2898,7 @@
         <v>0.12850971922246199</v>
       </c>
       <c r="C184">
-        <v>0.87149028077753699</v>
+        <v>0.99991365748263294</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -2909,7 +2909,7 @@
         <v>0.57444456331799798</v>
       </c>
       <c r="C185">
-        <v>0.42555543668200102</v>
+        <v>0.99469655670386503</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -2920,7 +2920,7 @@
         <v>0.111956127109089</v>
       </c>
       <c r="C186">
-        <v>0.88804387289091002</v>
+        <v>0.99978102134305602</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -2931,7 +2931,7 @@
         <v>0.45448927341749801</v>
       </c>
       <c r="C187">
-        <v>0.54551072658250199</v>
+        <v>0.99779580169103299</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -2942,7 +2942,7 @@
         <v>1.51019380820538E-2</v>
       </c>
       <c r="C188">
-        <v>0.98489806191794604</v>
+        <v>0.99976148351029004</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -2953,7 +2953,7 @@
         <v>0.72396828304503702</v>
       </c>
       <c r="C189">
-        <v>0.27603171695496298</v>
+        <v>0.99670063749232296</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -2964,7 +2964,7 @@
         <v>0.611510791366906</v>
       </c>
       <c r="C190">
-        <v>0.388489208633093</v>
+        <v>0.99848393916050004</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -2975,7 +2975,7 @@
         <v>0.20994475138121499</v>
       </c>
       <c r="C191">
-        <v>0.79005524861878396</v>
+        <v>0.99901875587579603</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -2986,7 +2986,7 @@
         <v>0.60962566844919697</v>
       </c>
       <c r="C192">
-        <v>0.39037433155080198</v>
+        <v>0.99909479683133195</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -2997,7 +2997,7 @@
         <v>0.62051282051281997</v>
       </c>
       <c r="C193">
-        <v>0.37948717948717903</v>
+        <v>0.99728386472693298</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -3008,7 +3008,7 @@
         <v>0.66232227488151596</v>
       </c>
       <c r="C194">
-        <v>0.33767772511848299</v>
+        <v>0.99800373170272605</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -3019,7 +3019,7 @@
         <v>1.0204081632653E-2</v>
       </c>
       <c r="C195">
-        <v>0.98979591836734604</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -3030,7 +3030,7 @@
         <v>0.45189246551114198</v>
       </c>
       <c r="C196">
-        <v>0.54810753448885696</v>
+        <v>0.99967338549737295</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -3041,7 +3041,7 @@
         <v>8.8163514338010895E-2</v>
       </c>
       <c r="C197">
-        <v>0.91183648566198905</v>
+        <v>0.99997003175135901</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -3052,7 +3052,7 @@
         <v>0.65356058049274302</v>
       </c>
       <c r="C198">
-        <v>0.34643941950725599</v>
+        <v>0.99826674698920304</v>
       </c>
     </row>
   </sheetData>
